--- a/public/relatorio_distribuicoes.xlsx
+++ b/public/relatorio_distribuicoes.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>ID</t>
   </si>
@@ -28,13 +28,19 @@
     <t>Data</t>
   </si>
   <si>
+    <t>Feijão</t>
+  </si>
+  <si>
+    <t>Lar São José</t>
+  </si>
+  <si>
+    <t>15 13:55:04-08-2025</t>
+  </si>
+  <si>
     <t>Feijão Teste</t>
   </si>
   <si>
     <t>Casa Teste</t>
-  </si>
-  <si>
-    <t>02-04-2025</t>
   </si>
 </sst>
 </file>
@@ -411,7 +417,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -433,18 +439,35 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
       </c>
     </row>

--- a/public/relatorio_distribuicoes.xlsx
+++ b/public/relatorio_distribuicoes.xlsx
@@ -34,7 +34,7 @@
     <t>Lar São José</t>
   </si>
   <si>
-    <t>15 13:55:04-08-2025</t>
+    <t>15 14:12:18-08-2025</t>
   </si>
   <si>
     <t>Feijão Teste</t>

--- a/public/relatorio_distribuicoes.xlsx
+++ b/public/relatorio_distribuicoes.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>ID</t>
   </si>
@@ -28,13 +28,19 @@
     <t>Data</t>
   </si>
   <si>
+    <t>Arroz</t>
+  </si>
+  <si>
+    <t>Casa Esperança</t>
+  </si>
+  <si>
+    <t>15 18:40:35-08-2025</t>
+  </si>
+  <si>
     <t>Feijão</t>
   </si>
   <si>
     <t>Lar São José</t>
-  </si>
-  <si>
-    <t>15 14:12:18-08-2025</t>
   </si>
   <si>
     <t>Feijão Teste</t>
@@ -417,7 +423,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -439,13 +445,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -456,18 +462,35 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
         <v>7</v>
       </c>
     </row>
